--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3212.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3212.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.194005887909787</v>
+        <v>1.751636028289795</v>
       </c>
       <c r="B1">
-        <v>3.198810758792401</v>
+        <v>2.069686651229858</v>
       </c>
       <c r="C1">
-        <v>6.248531237995294</v>
+        <v>2.21508264541626</v>
       </c>
       <c r="D1">
-        <v>2.303264722913883</v>
+        <v>2.929163217544556</v>
       </c>
       <c r="E1">
-        <v>1.391559923242415</v>
+        <v>1.757104396820068</v>
       </c>
     </row>
   </sheetData>
